--- a/export/DSCC.xlsx
+++ b/export/DSCC.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DSCCFile" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="DSCCFile" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="DSCCFile1" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -553,4 +554,140 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Document</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">EP Study MIL-DTL-32139/15 and /16 -- Dated 4/5/2023 </t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Connectors, Electrical, Rectangular, Nanominiature, Dual Row, Plug, Receptacle, Polarized Shell, Pin, Sockets Contacts, Vertical PCB Surface Mount Shell </t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>https://landandmaritimeapps.dla.mil/Downloads/MilSpec/Docs/5935EPStudies/epsdtl32139.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MIL-DTL-17/224A w/Amendment 1 -- Dated 2/27/2023 </t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cable, Radio Frequency, Flexible, Coaxial, 50 Ohms, Low Smoke, Low Loss Diameter .500 </t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>https://landandmaritimeapps.dla.mil/Downloads/MilSpec/Docs/MIL-DTL-17/dtl17ss224.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MIL-DTL-39030/20D w/Amendment 1 -- Dated 1/31/2023 </t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dummy Loads, Electrical Type XIV (Tab Contact), Stripline, Low Power </t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://landandmaritimeapps.dla.mil/Downloads/MilSpec/Docs/MIL-DTL-39030/dtl39030ss20.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MIL-DTL-39030/21B w/Amendment 1 -- Dated 1/31/2023 </t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dummy Loads, Electrical, Type XIV (Tab Contact), Stripline, Medium Power </t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://landandmaritimeapps.dla.mil/Downloads/MilSpec/Docs/MIL-DTL-39030/dtl39030ss21.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MIL-DTL-83503 (Rev C) -- Dated 3/6/2023 </t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Connectors, Electrical, Flat Cable, and/or Printed Wiring Board, Nonenvironmental General Specification for (w/Amendment 2) </t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://landandmaritimeapps.dla.mil/Downloads/MilSpec/Docs/MIL-DTL-83503/dtl83503.pdf</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/export/DSCC.xlsx
+++ b/export/DSCC.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="DSCCFile" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="DSCCFile1" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -553,4 +554,140 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Document</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">EP Study MIL-DTL-32139/15 and /16 -- Dated 4/5/2023 </t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Connectors, Electrical, Rectangular, Nanominiature, Dual Row, Plug, Receptacle, Polarized Shell, Pin, Sockets Contacts, Vertical PCB Surface Mount Shell </t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>https://landandmaritimeapps.dla.mil/Downloads/MilSpec/Docs/5935EPStudies/epsdtl32139.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MIL-DTL-17/224A w/Amendment 1 -- Dated 2/27/2023 </t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cable, Radio Frequency, Flexible, Coaxial, 50 Ohms, Low Smoke, Low Loss Diameter .500 </t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>https://landandmaritimeapps.dla.mil/Downloads/MilSpec/Docs/MIL-DTL-17/dtl17ss224.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MIL-DTL-39030/20D w/Amendment 1 -- Dated 1/31/2023 </t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dummy Loads, Electrical Type XIV (Tab Contact), Stripline, Low Power </t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://landandmaritimeapps.dla.mil/Downloads/MilSpec/Docs/MIL-DTL-39030/dtl39030ss20.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MIL-DTL-39030/21B w/Amendment 1 -- Dated 1/31/2023 </t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dummy Loads, Electrical, Type XIV (Tab Contact), Stripline, Medium Power </t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://landandmaritimeapps.dla.mil/Downloads/MilSpec/Docs/MIL-DTL-39030/dtl39030ss21.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MIL-DTL-83503 (Rev C) -- Dated 3/6/2023 </t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Connectors, Electrical, Flat Cable, and/or Printed Wiring Board, Nonenvironmental General Specification for (w/Amendment 2) </t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://landandmaritimeapps.dla.mil/Downloads/MilSpec/Docs/MIL-DTL-83503/dtl83503.pdf</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>